--- a/补充翻译（整合）.xlsx
+++ b/补充翻译（整合）.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msxs5\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A0442B-1591-45F5-9412-EB9AC4FBF1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28035" windowHeight="10080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="374">
   <si>
     <t>中</t>
   </si>
@@ -6624,42 +6630,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>도난당한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시간</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盗まれた時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6690,13 +6660,310 @@
       <t>ánh cắp</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户打分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续质询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传手持证件照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Further Enquiry</t>
+  </si>
+  <si>
+    <r>
+      <t>도난당한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さらなる問い合わせ</t>
+  </si>
+  <si>
+    <t>Rückfrage</t>
+  </si>
+  <si>
+    <t>Yêu cầu thêm</t>
+  </si>
+  <si>
+    <r>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+  </si>
+  <si>
+    <t>User rating</t>
+  </si>
+  <si>
+    <r>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>평가</t>
+    </r>
+  </si>
+  <si>
+    <t>ユーザー評価</t>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ánh giá của ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng</t>
+    </r>
+  </si>
+  <si>
+    <t>Benutzerbewertung</t>
+  </si>
+  <si>
+    <t>打分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bewertung</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>등급</t>
+  </si>
+  <si>
+    <t>得点</t>
+  </si>
+  <si>
+    <t>Điểm số</t>
+  </si>
+  <si>
+    <t>Gửi thành công</t>
+  </si>
+  <si>
+    <t>正常に送信されました</t>
+  </si>
+  <si>
+    <r>
+      <t>성공적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제출</t>
+    </r>
+  </si>
+  <si>
+    <t>Submitted successfully</t>
+  </si>
+  <si>
+    <t>Erfolgreich übermittelt</t>
+  </si>
+  <si>
+    <t>Hand holding a photo of the certificate</t>
+  </si>
+  <si>
+    <t>Hand hält ein Foto des Zertifikats</t>
+  </si>
+  <si>
+    <t>証明書の写真を持っている手</t>
+  </si>
+  <si>
+    <r>
+      <t>손을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잡고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인증서의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사진</t>
+    </r>
+  </si>
+  <si>
+    <t>Tay cầm một tấm ảnh chứng nhận</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6788,6 +7055,13 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6870,7 +7144,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6882,9 +7156,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6901,6 +7172,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6910,24 +7190,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6969,7 +7254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7001,9 +7286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7035,6 +7338,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7210,20 +7531,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="22.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7243,1134 +7564,1134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
         <v>929</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="63">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="21">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="42">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21">
-      <c r="A25" s="4">
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
         <v>1003</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="31.5">
-      <c r="A32" s="4">
+    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
         <v>1004</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="42">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="63">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="1:7" ht="63" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="63">
-      <c r="A36" s="8">
+    <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
         <v>1006</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
         <v>1008</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="63">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="1:7" ht="63" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="21">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A43" s="11"/>
+      <c r="B43" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="11">
         <v>1009</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="21">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="21">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="21">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="31.5">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="4"/>
-      <c r="B53" s="9" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" ht="31.5">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="31.5">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="84">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="1:7" ht="84" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="21">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5" t="s">
+    <row r="59" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="21">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="31.5">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="11"/>
+      <c r="B62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="10">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="12">
         <v>1010</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -8379,7 +8700,7 @@
       <c r="C64" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="9" t="s">
         <v>319</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -8392,15 +8713,15 @@
         <v>321</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="11"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="13"/>
       <c r="B65" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -8413,8 +8734,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="11"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
       <c r="B66" s="3" t="s">
         <v>295</v>
       </c>
@@ -8434,15 +8755,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="11"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="13"/>
       <c r="B67" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -8455,36 +8776,36 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="11"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="13"/>
       <c r="B68" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="9" t="s">
         <v>334</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="10" t="s">
         <v>336</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="11"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="13"/>
       <c r="B69" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="9" t="s">
         <v>340</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -8497,18 +8818,18 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="11"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="13"/>
       <c r="B70" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="9" t="s">
         <v>309</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -8518,36 +8839,36 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="11"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="13"/>
       <c r="B71" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="12"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="14"/>
       <c r="B72" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -8560,14 +8881,122 @@
         <v>314</v>
       </c>
     </row>
+    <row r="74" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="12">
+        <v>1018</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="13"/>
+      <c r="B75" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="13"/>
+      <c r="B76" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="13"/>
+      <c r="B77" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="14"/>
+      <c r="B78" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="A74:A78"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A46:A62"/>
     <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A64:A72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8576,12 +9005,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8589,12 +9018,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/补充翻译（整合）.xlsx
+++ b/补充翻译（整合）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msxs5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A0442B-1591-45F5-9412-EB9AC4FBF1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF48A7D-D863-40DF-96FB-006FD5FEC94A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="380">
   <si>
     <t>中</t>
   </si>
@@ -6957,13 +6957,46 @@
   </si>
   <si>
     <t>Tay cầm một tấm ảnh chứng nhận</t>
+  </si>
+  <si>
+    <t>SBO交易</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBO Transaction</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SBO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>거래</t>
+    </r>
+  </si>
+  <si>
+    <t>SBOトランザクション</t>
+  </si>
+  <si>
+    <t>Giao dịch SBO</t>
+  </si>
+  <si>
+    <t>SBO-Transaktion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7062,6 +7095,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7144,7 +7184,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7178,8 +7218,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7190,8 +7230,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7532,10 +7581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -7565,7 +7614,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>929</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7588,7 +7637,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
@@ -7609,7 +7658,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -7630,7 +7679,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -7651,7 +7700,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
@@ -7672,7 +7721,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -7693,7 +7742,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
@@ -7714,7 +7763,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
@@ -7735,7 +7784,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
@@ -7756,7 +7805,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
@@ -7777,7 +7826,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
@@ -7798,7 +7847,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
@@ -7819,7 +7868,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
@@ -7840,7 +7889,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
@@ -7861,7 +7910,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
@@ -7882,7 +7931,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>73</v>
       </c>
@@ -7903,7 +7952,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
@@ -7924,7 +7973,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>82</v>
       </c>
@@ -7945,7 +7994,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>87</v>
       </c>
@@ -7966,7 +8015,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="4" t="s">
         <v>91</v>
       </c>
@@ -7987,7 +8036,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>94</v>
       </c>
@@ -8008,7 +8057,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
         <v>98</v>
       </c>
@@ -8029,7 +8078,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+      <c r="A25" s="15">
         <v>1003</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -8052,7 +8101,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>106</v>
       </c>
@@ -8073,7 +8122,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>111</v>
       </c>
@@ -8094,7 +8143,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>115</v>
       </c>
@@ -8115,7 +8164,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>119</v>
       </c>
@@ -8136,7 +8185,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -8165,7 +8214,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="11">
+      <c r="A32" s="15">
         <v>1004</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -8188,7 +8237,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
         <v>133</v>
       </c>
@@ -8209,7 +8258,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="63" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
         <v>137</v>
       </c>
@@ -8261,7 +8310,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="11">
+      <c r="A38" s="15">
         <v>1008</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -8284,7 +8333,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
         <v>185</v>
       </c>
@@ -8305,7 +8354,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="4" t="s">
         <v>190</v>
       </c>
@@ -8326,7 +8375,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="4" t="s">
         <v>195</v>
       </c>
@@ -8347,7 +8396,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="63" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="4" t="s">
         <v>200</v>
       </c>
@@ -8368,7 +8417,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="4" t="s">
         <v>204</v>
       </c>
@@ -8389,7 +8438,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="4" t="s">
         <v>209</v>
       </c>
@@ -8410,7 +8459,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="11">
+      <c r="A46" s="15">
         <v>1009</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -8423,7 +8472,7 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="4" t="s">
         <v>146</v>
       </c>
@@ -8436,7 +8485,7 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="4" t="s">
         <v>148</v>
       </c>
@@ -8449,7 +8498,7 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="4" t="s">
         <v>149</v>
       </c>
@@ -8462,7 +8511,7 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="4" t="s">
         <v>150</v>
       </c>
@@ -8475,7 +8524,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="4" t="s">
         <v>151</v>
       </c>
@@ -8488,10 +8537,10 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="8" t="s">
         <v>153</v>
       </c>
@@ -8502,7 +8551,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="4" t="s">
         <v>147</v>
       </c>
@@ -8523,7 +8572,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="4" t="s">
         <v>157</v>
       </c>
@@ -8544,7 +8593,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="84" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
@@ -8565,7 +8614,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="4" t="s">
         <v>165</v>
       </c>
@@ -8586,7 +8635,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="11"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="4" t="s">
         <v>106</v>
       </c>
@@ -8607,7 +8656,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="4" t="s">
         <v>170</v>
       </c>
@@ -8628,7 +8677,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="4" t="s">
         <v>174</v>
       </c>
@@ -8649,7 +8698,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="4" t="s">
         <v>177</v>
       </c>
@@ -8670,7 +8719,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="11"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="4" t="s">
         <v>129</v>
       </c>
@@ -8882,13 +8931,13 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="12">
+      <c r="A74" s="16">
         <v>1018</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="11" t="s">
         <v>347</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -8905,7 +8954,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="3" t="s">
         <v>343</v>
       </c>
@@ -8926,7 +8975,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="13"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="3" t="s">
         <v>358</v>
       </c>
@@ -8947,7 +8996,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="13"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="3" t="s">
         <v>345</v>
       </c>
@@ -8968,7 +9017,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="14"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="3" t="s">
         <v>346</v>
       </c>
@@ -8986,17 +9035,38 @@
       </c>
       <c r="G78" s="3" t="s">
         <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="18"/>
+      <c r="B79" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A64:A72"/>
-    <mergeCell ref="A74:A78"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A46:A62"/>
     <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
